--- a/molgenis-charts/src/test/resources/heatmap.xlsx
+++ b/molgenis-charts/src/test/resources/heatmap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="25840" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="7700" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="heatmap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Probe1</t>
   </si>
@@ -36,59 +36,149 @@
     <t>Patient1</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>Patient2</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>Patient3</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>Patient4</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>Patient5</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.8</t>
+    <t>Probe4</t>
+  </si>
+  <si>
+    <t>Probe5</t>
+  </si>
+  <si>
+    <t>Probe6</t>
+  </si>
+  <si>
+    <t>Probe7</t>
+  </si>
+  <si>
+    <t>Probe8</t>
+  </si>
+  <si>
+    <t>Probe9</t>
+  </si>
+  <si>
+    <t>Probe10</t>
+  </si>
+  <si>
+    <t>Probe11</t>
+  </si>
+  <si>
+    <t>Probe12</t>
+  </si>
+  <si>
+    <t>Probe13</t>
+  </si>
+  <si>
+    <t>Probe14</t>
+  </si>
+  <si>
+    <t>Patient6</t>
+  </si>
+  <si>
+    <t>Patient7</t>
+  </si>
+  <si>
+    <t>Patient8</t>
+  </si>
+  <si>
+    <t>Patient9</t>
+  </si>
+  <si>
+    <t>Patient10</t>
+  </si>
+  <si>
+    <t>Patient11</t>
+  </si>
+  <si>
+    <t>Patient12</t>
+  </si>
+  <si>
+    <t>Patient13</t>
+  </si>
+  <si>
+    <t>Patient14</t>
+  </si>
+  <si>
+    <t>Patient15</t>
+  </si>
+  <si>
+    <t>Patient16</t>
+  </si>
+  <si>
+    <t>Patient17</t>
+  </si>
+  <si>
+    <t>Patient18</t>
+  </si>
+  <si>
+    <t>Patient19</t>
+  </si>
+  <si>
+    <t>Patient20</t>
+  </si>
+  <si>
+    <t>Patient21</t>
+  </si>
+  <si>
+    <t>Patient22</t>
+  </si>
+  <si>
+    <t>Patient23</t>
+  </si>
+  <si>
+    <t>Patient24</t>
+  </si>
+  <si>
+    <t>Patient25</t>
+  </si>
+  <si>
+    <t>Patient26</t>
+  </si>
+  <si>
+    <t>Patient27</t>
+  </si>
+  <si>
+    <t>Patient28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,13 +199,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -466,79 +569,1751 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.43623354590900298</v>
+      </c>
+      <c r="C2" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.93919949360545241</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.39169424910284134</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:O17" ca="1" si="0">RAND()</f>
+        <v>0.89195221812156855</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6330227140356055</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7790136681992141E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61266823433383089</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58667886909277378</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94666512881985454</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83547119634292966</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16377935683226008</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8852279084165694</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88036115882980281</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69719990464332637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:C29" ca="1" si="1">RAND()</f>
+        <v>0.60093987814635608</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41672607974473808</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:O29" ca="1" si="2">RAND()</f>
+        <v>0.33060563358928752</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43601088711728975</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85007018666316081</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46457056548556164</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3780217742197155</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7452245734210576E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2851630663973692E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92984967354749415</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8089047137784241</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.105876739452675E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2366592331815203E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30221253039215779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70090779514674251</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.4783159058432247E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5631992535217916E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8409429338747008E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34604158944486429</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17169267324303517</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45191908832989514</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88897276581455054</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46330750294714784</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42886923856360826</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72962296009744898</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49809064194844754</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86313927724568729</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19637299566353006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72370182430558705</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47110441695378824</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18673016202451986</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95826466348717021</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19439010540815926</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91150633391885794</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5580976270647956</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19331625162788624</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88056617009006843</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24727381168893281</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4499020114340897</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29745070555317721</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56809191679739701</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15823469441819837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="B6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43304465422856364</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93245455567761748</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30770728453853347</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45104844503319252</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33650991092787086</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68126952902153992</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94352193977796495</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41981664448722866</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56206370582900778</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94424843185231555</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8272189155016052</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83926800991043671</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67787403628320919</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84662756877609169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6380903737567554E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9807216626550701</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96675481591582191</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5433222414676111</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8807122986076773</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8063011696767326E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20970105459691601</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12069742336229683</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57379163916847409</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47257515366373259</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39880092551617141</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51210790338093592</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46919810461842015</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43360847256587853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12761809378959721</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47422790838509865</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89738766579678142</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12983025220162725</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95961285430279408</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0595131690372903E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69375465157184391</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48823001855496928</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62823589394246615</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10725139572601239</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16999853013886934</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4043785769816598</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99906036558794309</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93310378010960493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6762403555458194</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45252734433273911</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40333674212849013</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90398599015953518</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.631196119693016E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.335753019962722</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36981044030003685</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67042179346368014</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31549609561694525</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21621642178824119</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60436332349184752</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45467025718366927</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44508238528166111</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22261086065702618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84453930225616936</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.40811932485404845</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67766959082916367</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.340182983383153</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21397089740304931</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57356770044233096</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0024429011638616E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65338539449192468</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82808267920133638</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3840970711452858E-4</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31574526389780444</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33388914304773676</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16695516759863094</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92219905494698862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53873554896729947</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56216029916784471</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46276261426009613</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93272992057359461</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67177079303777032</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27837406415758859</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43098498159887866</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87475893824073592</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39344843533340457</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56734064408613161</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39309043028285551</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8249631435473384E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92222758498627</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77624561179644835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44076836859541502</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9065827365540351</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79530892150787658</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85881183143888351</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5306386627779305E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46117968640508689</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1470117008182722</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29249622081218729</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38223248578003088</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46345971754096116</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44734503173923967</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8277591786471508E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68520204156637787</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22555325973709095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44288086938551485</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50256831866097396</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47518945340659624</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43157943969667512</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23247615463224947</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59962645122936498</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76194463292967807</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.250844451774343</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21095424529351936</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44251617425917944</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66511392098262467</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1895813018252319E-4</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32507684882879839</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45821842827628689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14322184743244437</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82976253796126442</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73158882734443853</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9149531977773866E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8540332900837041</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24409683921300718</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85770357606023706</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63138656009880012</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89589262849591955</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13620533505578447</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14935234290345589</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99934297201989342</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79399698819396092</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26169213768120625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58224350331025743</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33433467022248387</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32506895362024602</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56525670397868921</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33815337779959898</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64806950340888314</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84316437415138445</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5398722632224856</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18556910666672088</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.860548011829577E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1586857295988424E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17466721151033626</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98614804194396277</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3141638860343976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97087222840006826</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.4098804740301634E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58061358695501908</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44828776421766203</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5679950941157057</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7997278456826209</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13724696126670988</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10103570806708961</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89623112709684927</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19540268841042885</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49573282258392604</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90386803329585541</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24190319941506033</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40432664790121442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55583819792695888</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15043331287212569</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11563081340045156</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54644759587636771</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98866942431639149</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62513848234412739</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48799530646615774</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3483217669826897E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8341119696671272</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64324286295883204</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72933288725631251</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32279666034892729</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19607293129782366</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39347345859282457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70145591842715693</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8274555941558726E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88069872451056308</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85679644518343501</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76747010693390671</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6983823722583038</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59615203370396308</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38483729716613901</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46732949479165264</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26264349839217249</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26288002689709389</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9300624359511982E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54076819406416432</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6180946598357289E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83550250703278972</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73560079334820383</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92775409702771428</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4618225398147091E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2255056631189819</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26815689179980284</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91245660745142065</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80536487882663621</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35551522352013054</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3685240016466325E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75073876530235306</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57349257125340825</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77298805824662797</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9920364740756149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47554473478186932</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19859278644834832</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61792877353834519</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19954405706575196</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72816222441277323</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71202405617428588</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58022411104427518</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51858938610868088</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18396706595659884</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80387209730245057</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82954289610865839</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6394905408918365E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49387551577114519</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90871067400619199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91148352758043871</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88382485757798757</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92843600737355081</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51469003571340699</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86969304440444983</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9746180733014991E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70335247112888211</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53742937972007021</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82541545719419784</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33406914187256598</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74006338194869015</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13307472030375733</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44584946397609637</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88926699684462551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56274147869202329</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27788526331006358</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22362315803626109</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13001021348050223</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55612613302231584</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99829665805330525</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87302237884280942</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2155574497275986</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74255830994456007</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60573310962027749</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4797925371726213E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.83320541533881676</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35685681354732679</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78541850499669941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89561173902816982</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66711006683765006</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4861155711758024</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27820882377518963</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93249819801953515</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57054504462582356</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30781001597436763</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21558478956314764</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90644936193368475</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93187474259088743</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.7132746058315147</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.073244844062577E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89797889200946168</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70041011722467839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64448419907514876</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33269008046083592</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25145080460660474</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12209003099303384</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82327221100095815</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25583543993875235</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45192525302798681</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92096308083219924</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5259686880535535E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23982769334486109</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5923494653610768E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37977636856164443</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2276620576005666E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24814116434629641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16366213313829292</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43400843864120386</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62499121946713654</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61209147633638417</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73190553975649209</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95428375254577635</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4071651857529797E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42549578954975753</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65561776213136902</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16047843546764362</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30465519450100165</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69327288427269596</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98361186111336119</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41251699192654945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97227131175353609</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9443455017553456</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62413112437326435</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82481743316758338</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5960237741660841</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61837130912983873</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88523934990594966</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43069743974031893</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86217692705931082</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23269663766445214</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51975038485706093</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13122722145838395</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77493676602473316</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57119900289420777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50536382760053045</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30218996959909517</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6038878839270465E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28921248813510758</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55527938820635936</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2604472091546137E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23428819267068413</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27077123813215953</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32500242994275297</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2347942779155092E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.71899758743915132</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82557203273444812</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3965264855087578E-2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2845526128857323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56471723819848485</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11856960636877767</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37516083618457219</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73614996738316851</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15151178591566139</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95666553578466063</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38466918434997077</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35438853693002226</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52270933353306837</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97853770610083424</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37951955141950311</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52393326961736308</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34416873335945386</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90051524408737293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7957773008910074</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80979825573406727</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42606731006561582</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73032945892754442</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24401256680383221</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39173609838032564</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81832684281670032</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52363913242981375</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62013955360126061</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22242456462521665</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19457525771602302</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47308890927918135</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43486506066564312</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35672202150130961</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
